--- a/Book.xlsx
+++ b/Book.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="65416" yWindow="65416" windowWidth="29040" windowHeight="15990" activeTab="0"/>
+    <workbookView xWindow="65416" yWindow="65416" windowWidth="29040" windowHeight="15990" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Evaluation Warning" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029"/>
-  <extLst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="75">
   <si>
     <t>ID</t>
   </si>
@@ -216,6 +217,36 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>https://www.e-iceblue.com/Buy/Spire.XLS.html</t>
+  </si>
+  <si>
+    <t>Buy Now!</t>
+  </si>
+  <si>
+    <t>mailto:support@e-iceblue.com</t>
+  </si>
+  <si>
+    <t>Contact US</t>
+  </si>
+  <si>
+    <t>https://www.e-iceblue.com</t>
+  </si>
+  <si>
+    <t>Home page</t>
+  </si>
+  <si>
+    <t>e-iceblue Inc. 2002-2025 All rights reserverd</t>
+  </si>
+  <si>
+    <t>Spire.XLS for .NET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basketball Volleyball Soccer </t>
+  </si>
+  <si>
+    <t>awdawd</t>
   </si>
 </sst>
 </file>
@@ -231,7 +262,7 @@
     <numFmt numFmtId="166" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="177" formatCode="M/d/yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +274,22 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -262,7 +309,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="245">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -286,21 +333,256 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="244">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0"/>
     <cellStyle name="Percent" xfId="15"/>
     <cellStyle name="Currency" xfId="16"/>
     <cellStyle name="Currency [0]" xfId="17"/>
     <cellStyle name="Comma" xfId="18"/>
     <cellStyle name="Comma [0]" xfId="19"/>
+    <cellStyle name="Hyperlink" xfId="244"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -679,13 +961,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{469FC7C6-0485-4104-9A21-DB888F49B5BD}">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+    <sheetView workbookViewId="0" topLeftCell="A1">
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultColWidthPt="48" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="9" max="9" width="14.28125" widthPt="75" style="0" customWidth="1"/>
     <col min="11" max="11" width="11.7109375" widthPt="61.5" style="0" customWidth="1"/>
@@ -812,7 +1094,7 @@
         <v>21</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="3"/>
     </row>
@@ -1211,7 +1493,7 @@
         <v>45768</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="3"/>
     </row>
@@ -1259,7 +1541,7 @@
         <v>21</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="3"/>
     </row>
@@ -1285,8 +1567,11 @@
       <c r="L18" t="s">
         <v>63</v>
       </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
       <c r="N18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3"/>
     </row>
@@ -1346,6 +1631,44 @@
     </row>
     <row r="37" ht="15">
       <c r="O37" s="3"/>
+    </row>
+    <row r="38" spans="1:14" ht="15">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" t="s">
+        <v>74</v>
+      </c>
+      <c r="I38" s="4">
+        <v>38302</v>
+      </c>
+      <c r="J38">
+        <v>21</v>
+      </c>
+      <c r="M38" t="s">
+        <v>33</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <printOptions/>
@@ -1356,13 +1679,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D94AAE29-146E-4286-8DC7-2B06F15DBB76}">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultColWidthPt="48" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="14.28125" widthPt="75" style="0" customWidth="1"/>
     <col min="3" max="3" width="17.28125" widthPt="90.75" style="0" customWidth="1"/>
@@ -2066,9 +2389,181 @@
         <v>45769.1204050926</v>
       </c>
     </row>
+    <row r="72" spans="1:4" ht="15">
+      <c r="A72" t="s">
+        <v>17</v>
+      </c>
+      <c r="B72" t="s">
+        <v>43</v>
+      </c>
+      <c r="C72" s="4">
+        <v>45776</v>
+      </c>
+      <c r="D72" s="4">
+        <v>45776.093923611108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15">
+      <c r="A73" t="s">
+        <v>17</v>
+      </c>
+      <c r="B73" t="s">
+        <v>43</v>
+      </c>
+      <c r="C73" s="4">
+        <v>45776</v>
+      </c>
+      <c r="D73" s="4">
+        <v>45776.095150462963</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15">
+      <c r="A74" t="s">
+        <v>17</v>
+      </c>
+      <c r="B74" t="s">
+        <v>43</v>
+      </c>
+      <c r="C74" s="4">
+        <v>45776</v>
+      </c>
+      <c r="D74" s="4">
+        <v>45776.112928240742</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15">
+      <c r="A75" t="s">
+        <v>17</v>
+      </c>
+      <c r="B75" t="s">
+        <v>43</v>
+      </c>
+      <c r="C75" s="4">
+        <v>45776</v>
+      </c>
+      <c r="D75" s="4">
+        <v>45776.11347222222</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15">
+      <c r="A76" t="s">
+        <v>17</v>
+      </c>
+      <c r="B76" t="s">
+        <v>43</v>
+      </c>
+      <c r="C76" s="4">
+        <v>45776</v>
+      </c>
+      <c r="D76" s="4">
+        <v>45776.114293981482</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15">
+      <c r="A77" t="s">
+        <v>17</v>
+      </c>
+      <c r="B77" t="s">
+        <v>43</v>
+      </c>
+      <c r="C77" s="4">
+        <v>45776</v>
+      </c>
+      <c r="D77" s="4">
+        <v>45776.114930555559</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15">
+      <c r="A78" t="s">
+        <v>17</v>
+      </c>
+      <c r="B78" t="s">
+        <v>43</v>
+      </c>
+      <c r="C78" s="4">
+        <v>45776</v>
+      </c>
+      <c r="D78" s="4">
+        <v>45776.116793981484</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15">
+      <c r="A79" t="s">
+        <v>17</v>
+      </c>
+      <c r="B79" t="s">
+        <v>43</v>
+      </c>
+      <c r="C79" s="4">
+        <v>45776</v>
+      </c>
+      <c r="D79" s="4">
+        <v>45776.117384259262</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" ht="15">
+      <c r="B1" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" ht="15">
+      <c r="B2" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" ht="15">
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" ht="15">
+      <c r="B5" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" ht="15">
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" ht="15">
+      <c r="B8" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" ht="15">
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" ht="15">
+      <c r="B11" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" display="https://www.e-iceblue.com"/>
+    <hyperlink ref="B8" r:id="rId2" display="mailto:support@e-iceblue.com"/>
+    <hyperlink ref="B11" r:id="rId3" display="https://www.e-iceblue.com/Buy/Spire.XLS.html"/>
+  </hyperlinks>
+  <printOptions/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
 </file>